--- a/data_year/zb/旅游业/按性别、年龄和事由分外国入境游客.xlsx
+++ b/data_year/zb/旅游业/按性别、年龄和事由分外国入境游客.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,910 +503,460 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.71</v>
+        <v>109.4373</v>
       </c>
       <c r="C2" t="n">
-        <v>82.43000000000001</v>
+        <v>203.0903</v>
       </c>
       <c r="D2" t="n">
-        <v>494.44</v>
+        <v>1171.3082</v>
       </c>
       <c r="E2" t="n">
-        <v>343.53</v>
+        <v>965.2027</v>
       </c>
       <c r="F2" t="n">
-        <v>59.93</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+        <v>163.651</v>
+      </c>
+      <c r="G2" t="n">
+        <v>619.6744</v>
+      </c>
+      <c r="H2" t="n">
+        <v>499.4364</v>
+      </c>
       <c r="I2" t="n">
-        <v>1016.0432</v>
+        <v>2612.69</v>
       </c>
       <c r="J2" t="n">
-        <v>360.07</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+        <v>933.8077</v>
+      </c>
+      <c r="K2" t="n">
+        <v>9.1046</v>
+      </c>
+      <c r="L2" t="n">
+        <v>246.2722</v>
+      </c>
       <c r="M2" t="n">
-        <v>655.97</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+        <v>1678.8818</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1238.2019</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.49</v>
+        <v>111.9409</v>
       </c>
       <c r="C3" t="n">
-        <v>87.56</v>
+        <v>212.4373</v>
       </c>
       <c r="D3" t="n">
-        <v>545.42</v>
+        <v>1227.6183</v>
       </c>
       <c r="E3" t="n">
-        <v>384.84</v>
+        <v>992.2843</v>
       </c>
       <c r="F3" t="n">
-        <v>64.33</v>
+        <v>166.9163</v>
       </c>
       <c r="G3" t="n">
-        <v>198.48</v>
+        <v>632.6416</v>
       </c>
       <c r="H3" t="n">
-        <v>263.63</v>
+        <v>576.354</v>
       </c>
       <c r="I3" t="n">
-        <v>1122.6384</v>
+        <v>2711.2</v>
       </c>
       <c r="J3" t="n">
-        <v>393.81</v>
+        <v>965.7868999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>39.26</v>
+        <v>10.9923</v>
       </c>
       <c r="L3" t="n">
-        <v>128.92</v>
+        <v>269.3903</v>
       </c>
       <c r="M3" t="n">
-        <v>728.83</v>
+        <v>1745.4102</v>
       </c>
       <c r="N3" t="n">
-        <v>492.35</v>
+        <v>1221.8189</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.16</v>
+        <v>111.7885</v>
       </c>
       <c r="C4" t="n">
-        <v>101.77</v>
+        <v>215.872</v>
       </c>
       <c r="D4" t="n">
-        <v>651.28</v>
+        <v>1229.7225</v>
       </c>
       <c r="E4" t="n">
-        <v>464.96</v>
+        <v>988.7021999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>77.78</v>
+        <v>173.0739</v>
       </c>
       <c r="G4" t="n">
-        <v>322.04</v>
+        <v>628.0185</v>
       </c>
       <c r="H4" t="n">
-        <v>271.28</v>
+        <v>630.9924</v>
       </c>
       <c r="I4" t="n">
-        <v>1343.9497</v>
+        <v>2719.16</v>
       </c>
       <c r="J4" t="n">
-        <v>466.44</v>
+        <v>981.4</v>
       </c>
       <c r="K4" t="n">
-        <v>41.25</v>
+        <v>10.7722</v>
       </c>
       <c r="L4" t="n">
-        <v>153.33</v>
+        <v>286.4734</v>
       </c>
       <c r="M4" t="n">
-        <v>877.51</v>
+        <v>1737.7591</v>
       </c>
       <c r="N4" t="n">
-        <v>556.05</v>
+        <v>1162.9026</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37.72</v>
+        <v>107.8866</v>
       </c>
       <c r="C5" t="n">
-        <v>86.72</v>
+        <v>206.6541</v>
       </c>
       <c r="D5" t="n">
-        <v>591.3200000000001</v>
+        <v>1209.1632</v>
       </c>
       <c r="E5" t="n">
-        <v>380.8</v>
+        <v>950.5407</v>
       </c>
       <c r="F5" t="n">
-        <v>43.73</v>
+        <v>154.7848</v>
       </c>
       <c r="G5" t="n">
-        <v>290.2</v>
+        <v>619.3998</v>
       </c>
       <c r="H5" t="n">
-        <v>242.17</v>
+        <v>657.8889</v>
       </c>
       <c r="I5" t="n">
-        <v>1140.2855</v>
+        <v>2629.0294</v>
       </c>
       <c r="J5" t="n">
-        <v>361.71</v>
+        <v>926.9629</v>
       </c>
       <c r="K5" t="n">
-        <v>24.73</v>
+        <v>19.9119</v>
       </c>
       <c r="L5" t="n">
-        <v>152.51</v>
+        <v>319.5303</v>
       </c>
       <c r="M5" t="n">
-        <v>778.58</v>
+        <v>1702.0665</v>
       </c>
       <c r="N5" t="n">
-        <v>430.67</v>
+        <v>1012.2985</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64.14709999999999</v>
+        <v>103.9237</v>
       </c>
       <c r="C6" t="n">
-        <v>131.9684</v>
+        <v>204.7848</v>
       </c>
       <c r="D6" t="n">
-        <v>828.8153</v>
+        <v>1210.24</v>
       </c>
       <c r="E6" t="n">
-        <v>588.2716</v>
+        <v>961.0014</v>
       </c>
       <c r="F6" t="n">
-        <v>80.04819999999999</v>
+        <v>156.1332</v>
       </c>
       <c r="G6" t="n">
-        <v>386.1359</v>
+        <v>539.5682</v>
       </c>
       <c r="H6" t="n">
-        <v>352.7979</v>
+        <v>814.6557</v>
       </c>
       <c r="I6" t="n">
-        <v>1693.2506</v>
+        <v>2636.08</v>
       </c>
       <c r="J6" t="n">
-        <v>572.8543</v>
+        <v>926.5718000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>37.6233</v>
+        <v>60.332</v>
       </c>
       <c r="L6" t="n">
-        <v>175.4815</v>
+        <v>328.5369</v>
       </c>
       <c r="M6" t="n">
-        <v>1120.3963</v>
+        <v>1709.5113</v>
       </c>
       <c r="N6" t="n">
-        <v>741.212</v>
+        <v>892.9903</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>79.93000000000001</v>
+        <v>101.43</v>
       </c>
       <c r="C7" t="n">
-        <v>164.46</v>
+        <v>205.03</v>
       </c>
       <c r="D7" t="n">
-        <v>979.74</v>
+        <v>1184.25</v>
       </c>
       <c r="E7" t="n">
-        <v>703.84</v>
+        <v>949.76</v>
       </c>
       <c r="F7" t="n">
-        <v>97.55</v>
+        <v>158.07</v>
       </c>
       <c r="G7" t="n">
-        <v>459.81</v>
+        <v>537.66</v>
       </c>
       <c r="H7" t="n">
-        <v>389.54</v>
+        <v>806.5599999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>2025.5137</v>
+        <v>2598.54</v>
       </c>
       <c r="J7" t="n">
-        <v>704.36</v>
+        <v>917.35</v>
       </c>
       <c r="K7" t="n">
-        <v>40.54</v>
+        <v>79.75</v>
       </c>
       <c r="L7" t="n">
-        <v>201.16</v>
+        <v>349.69</v>
       </c>
       <c r="M7" t="n">
-        <v>1321.15</v>
+        <v>1681.19</v>
       </c>
       <c r="N7" t="n">
-        <v>934.46</v>
+        <v>824.88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>88.29000000000001</v>
+        <v>114.73</v>
       </c>
       <c r="C8" t="n">
-        <v>173.24</v>
+        <v>303.32</v>
       </c>
       <c r="D8" t="n">
-        <v>1031.99</v>
+        <v>1473.56</v>
       </c>
       <c r="E8" t="n">
-        <v>804.46</v>
+        <v>1078.39</v>
       </c>
       <c r="F8" t="n">
-        <v>123.05</v>
+        <v>178.37</v>
       </c>
       <c r="G8" t="n">
-        <v>554.84</v>
+        <v>579.74</v>
       </c>
       <c r="H8" t="n">
-        <v>306.73</v>
+        <v>949.55</v>
       </c>
       <c r="I8" t="n">
-        <v>2221.03</v>
+        <v>3148.38</v>
       </c>
       <c r="J8" t="n">
-        <v>785.62</v>
+        <v>1166.33</v>
       </c>
       <c r="K8" t="n">
-        <v>17.03</v>
+        <v>96.19</v>
       </c>
       <c r="L8" t="n">
-        <v>209.24</v>
+        <v>471.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1435.41</v>
+        <v>1982.04</v>
       </c>
       <c r="N8" t="n">
-        <v>1133.19</v>
+        <v>1051.15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>107.7706</v>
+        <v>134.75</v>
       </c>
       <c r="C9" t="n">
-        <v>209.4332</v>
+        <v>568.8200000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>1192.5356</v>
+        <v>2143.34</v>
       </c>
       <c r="E9" t="n">
-        <v>948.3949</v>
+        <v>1256.03</v>
       </c>
       <c r="F9" t="n">
-        <v>152.8325</v>
+        <v>191.36</v>
       </c>
       <c r="G9" t="n">
-        <v>696.0548</v>
+        <v>569.6799999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>359.5271</v>
+        <v>1387.4</v>
       </c>
       <c r="I9" t="n">
-        <v>2610.9668</v>
+        <v>4294.3</v>
       </c>
       <c r="J9" t="n">
-        <v>953.9757</v>
+        <v>1686.32</v>
       </c>
       <c r="K9" t="n">
-        <v>7.9551</v>
+        <v>110.28</v>
       </c>
       <c r="L9" t="n">
-        <v>233.3458</v>
+        <v>633.91</v>
       </c>
       <c r="M9" t="n">
-        <v>1656.9911</v>
+        <v>2607.98</v>
       </c>
       <c r="N9" t="n">
-        <v>1314.084</v>
+        <v>1593.04</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>98.52119999999999</v>
+        <v>161.1797</v>
       </c>
       <c r="C10" t="n">
-        <v>206.1263</v>
+        <v>656.7135</v>
       </c>
       <c r="D10" t="n">
-        <v>1129.098</v>
+        <v>2394.6929</v>
       </c>
       <c r="E10" t="n">
-        <v>871.7018</v>
+        <v>1363.2403</v>
       </c>
       <c r="F10" t="n">
-        <v>127.0864</v>
+        <v>219.2787</v>
       </c>
       <c r="G10" t="n">
-        <v>567.7694</v>
+        <v>614.6963</v>
       </c>
       <c r="H10" t="n">
-        <v>410.824</v>
+        <v>1694.7369</v>
       </c>
       <c r="I10" t="n">
-        <v>2432.53</v>
+        <v>4795.1051</v>
       </c>
       <c r="J10" t="n">
-        <v>871.6383</v>
+        <v>1935.3938</v>
       </c>
       <c r="K10" t="n">
-        <v>6.791</v>
+        <v>132.2393</v>
       </c>
       <c r="L10" t="n">
-        <v>243.1908</v>
+        <v>744.8634</v>
       </c>
       <c r="M10" t="n">
-        <v>1560.8954</v>
+        <v>2859.7113</v>
       </c>
       <c r="N10" t="n">
-        <v>1203.9585</v>
+        <v>1608.5692</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>92.05</v>
+        <v>184.92</v>
       </c>
       <c r="C11" t="n">
-        <v>171.9</v>
+        <v>686.2</v>
       </c>
       <c r="D11" t="n">
-        <v>1004.28</v>
+        <v>2439.71</v>
       </c>
       <c r="E11" t="n">
-        <v>796.5599999999999</v>
+        <v>1365.75</v>
       </c>
       <c r="F11" t="n">
-        <v>128.95</v>
+        <v>234.77</v>
       </c>
       <c r="G11" t="n">
-        <v>523.72</v>
+        <v>628.47</v>
       </c>
       <c r="H11" t="n">
-        <v>421.38</v>
+        <v>1685.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2193.75</v>
+        <v>4911.36</v>
       </c>
       <c r="J11" t="n">
-        <v>763.6</v>
+        <v>2030.07</v>
       </c>
       <c r="K11" t="n">
-        <v>8.01</v>
+        <v>143.17</v>
       </c>
       <c r="L11" t="n">
-        <v>227.37</v>
+        <v>714.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1430.15</v>
+        <v>2881.29</v>
       </c>
       <c r="N11" t="n">
-        <v>1013.27</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>109.4373</v>
-      </c>
-      <c r="C12" t="n">
-        <v>203.0903</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1171.3082</v>
-      </c>
-      <c r="E12" t="n">
-        <v>965.2027</v>
-      </c>
-      <c r="F12" t="n">
-        <v>163.651</v>
-      </c>
-      <c r="G12" t="n">
-        <v>619.6744</v>
-      </c>
-      <c r="H12" t="n">
-        <v>499.4364</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2612.69</v>
-      </c>
-      <c r="J12" t="n">
-        <v>933.8077</v>
-      </c>
-      <c r="K12" t="n">
-        <v>9.1046</v>
-      </c>
-      <c r="L12" t="n">
-        <v>246.2722</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1678.8818</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1238.2019</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>111.9409</v>
-      </c>
-      <c r="C13" t="n">
-        <v>212.4373</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1227.6183</v>
-      </c>
-      <c r="E13" t="n">
-        <v>992.2843</v>
-      </c>
-      <c r="F13" t="n">
-        <v>166.9163</v>
-      </c>
-      <c r="G13" t="n">
-        <v>632.6416</v>
-      </c>
-      <c r="H13" t="n">
-        <v>576.354</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2711.2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>965.7868999999999</v>
-      </c>
-      <c r="K13" t="n">
-        <v>10.9923</v>
-      </c>
-      <c r="L13" t="n">
-        <v>269.3903</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1745.4102</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1221.8189</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>111.7885</v>
-      </c>
-      <c r="C14" t="n">
-        <v>215.872</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1229.7225</v>
-      </c>
-      <c r="E14" t="n">
-        <v>988.7021999999999</v>
-      </c>
-      <c r="F14" t="n">
-        <v>173.0739</v>
-      </c>
-      <c r="G14" t="n">
-        <v>628.0185</v>
-      </c>
-      <c r="H14" t="n">
-        <v>630.9924</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2719.16</v>
-      </c>
-      <c r="J14" t="n">
-        <v>981.4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>10.7722</v>
-      </c>
-      <c r="L14" t="n">
-        <v>286.4734</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1737.7591</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1162.9026</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>107.8866</v>
-      </c>
-      <c r="C15" t="n">
-        <v>206.6541</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1209.1632</v>
-      </c>
-      <c r="E15" t="n">
-        <v>950.5407</v>
-      </c>
-      <c r="F15" t="n">
-        <v>154.7848</v>
-      </c>
-      <c r="G15" t="n">
-        <v>619.3998</v>
-      </c>
-      <c r="H15" t="n">
-        <v>657.8889</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2629.0294</v>
-      </c>
-      <c r="J15" t="n">
-        <v>926.9629</v>
-      </c>
-      <c r="K15" t="n">
-        <v>19.9119</v>
-      </c>
-      <c r="L15" t="n">
-        <v>319.5303</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1702.0665</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1012.2985</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>103.9237</v>
-      </c>
-      <c r="C16" t="n">
-        <v>204.7848</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1210.24</v>
-      </c>
-      <c r="E16" t="n">
-        <v>961.0014</v>
-      </c>
-      <c r="F16" t="n">
-        <v>156.1332</v>
-      </c>
-      <c r="G16" t="n">
-        <v>539.5682</v>
-      </c>
-      <c r="H16" t="n">
-        <v>814.6557</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2636.08</v>
-      </c>
-      <c r="J16" t="n">
-        <v>926.5718000000001</v>
-      </c>
-      <c r="K16" t="n">
-        <v>60.332</v>
-      </c>
-      <c r="L16" t="n">
-        <v>328.5369</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1709.5113</v>
-      </c>
-      <c r="N16" t="n">
-        <v>892.9903</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>101.43</v>
-      </c>
-      <c r="C17" t="n">
-        <v>205.03</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1184.25</v>
-      </c>
-      <c r="E17" t="n">
-        <v>949.76</v>
-      </c>
-      <c r="F17" t="n">
-        <v>158.07</v>
-      </c>
-      <c r="G17" t="n">
-        <v>537.66</v>
-      </c>
-      <c r="H17" t="n">
-        <v>806.5599999999999</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2598.54</v>
-      </c>
-      <c r="J17" t="n">
-        <v>917.35</v>
-      </c>
-      <c r="K17" t="n">
-        <v>79.75</v>
-      </c>
-      <c r="L17" t="n">
-        <v>349.69</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1681.19</v>
-      </c>
-      <c r="N17" t="n">
-        <v>824.88</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>114.73</v>
-      </c>
-      <c r="C18" t="n">
-        <v>303.32</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1473.56</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1078.39</v>
-      </c>
-      <c r="F18" t="n">
-        <v>178.37</v>
-      </c>
-      <c r="G18" t="n">
-        <v>579.74</v>
-      </c>
-      <c r="H18" t="n">
-        <v>949.55</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2815.12</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1166.33</v>
-      </c>
-      <c r="K18" t="n">
-        <v>96.19</v>
-      </c>
-      <c r="L18" t="n">
-        <v>471.75</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1982.04</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1051.15</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>134.75</v>
-      </c>
-      <c r="C19" t="n">
-        <v>568.8200000000001</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2143.34</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1256.03</v>
-      </c>
-      <c r="F19" t="n">
-        <v>191.36</v>
-      </c>
-      <c r="G19" t="n">
-        <v>569.6799999999999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1387.4</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2916.53</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1686.32</v>
-      </c>
-      <c r="K19" t="n">
-        <v>110.28</v>
-      </c>
-      <c r="L19" t="n">
-        <v>633.91</v>
-      </c>
-      <c r="M19" t="n">
-        <v>2607.98</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1593.04</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>161.1797</v>
-      </c>
-      <c r="C20" t="n">
-        <v>656.7135</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2394.6929</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1363.2403</v>
-      </c>
-      <c r="F20" t="n">
-        <v>219.2787</v>
-      </c>
-      <c r="G20" t="n">
-        <v>614.6963</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1694.7369</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3054.2938</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1935.3938</v>
-      </c>
-      <c r="K20" t="n">
-        <v>132.2393</v>
-      </c>
-      <c r="L20" t="n">
-        <v>744.8634</v>
-      </c>
-      <c r="M20" t="n">
-        <v>2859.7113</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1608.5692</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>184.92</v>
-      </c>
-      <c r="C21" t="n">
-        <v>686.2</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2439.71</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1365.75</v>
-      </c>
-      <c r="F21" t="n">
-        <v>234.77</v>
-      </c>
-      <c r="G21" t="n">
-        <v>628.47</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1685.4</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3188.34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2030.07</v>
-      </c>
-      <c r="K21" t="n">
-        <v>143.17</v>
-      </c>
-      <c r="L21" t="n">
-        <v>714.01</v>
-      </c>
-      <c r="M21" t="n">
-        <v>2881.29</v>
-      </c>
-      <c r="N21" t="n">
         <v>1740.31</v>
       </c>
     </row>
